--- a/metadata/all_lineages.xlsx
+++ b/metadata/all_lineages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireillefarjo/Documents/Grad/2021/COVID_data/lineages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mireillefarjo/Documents/Grad/2022/SARS_data_complete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5850748-9621-DE4B-81A9-B65E1CD4FD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC8C559-E8BD-4441-92BA-2C6298A5CB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="460" windowWidth="26840" windowHeight="14680" xr2:uid="{BB84304D-BAA8-7745-ACA6-32FAD729E0A1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="24">
   <si>
     <t>Participant</t>
   </si>
@@ -157,13 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,18 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CB2478-6989-544A-AF90-4E909F6D5F71}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="12.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -499,7 +494,7 @@
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -507,2172 +502,2172 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>432686</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>2255901</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>432686</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2264708</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>432686</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2270321</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>432686</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>2278093</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>432686</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2290531</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>432686</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2322146</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>432870</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2264562</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>432870</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>2271129</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>432870</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2278138</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>432870</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>2285643</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>432870</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>2291489</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>432870</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>2294271</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>432870</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>2301664</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>432870</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>2309013</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>432870</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>2315984</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>433227</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>2291530</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>433227</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>2293412</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>433227</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>2301650</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>433227</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>2309019</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>433227</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>2315968</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>433227</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>2322121</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>433227</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>2335729</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>435786</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>2383664</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>435786</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>2387864</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>435786</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>2390233</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>435786</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>2394329</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>435786</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>2398968</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>435786</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>2425936</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>435805</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>2383684</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>435805</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>2387852</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>435805</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>2391842</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>435805</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>2394639</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>435805</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>2397170</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>435805</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>2399015</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>435805</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>2406331</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="A37">
         <v>435805</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>2410844</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="A38">
         <v>435805</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>2415388</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>438577</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>2394752</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="A40">
         <v>438577</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>2397148</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>438577</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>2399055</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>438577</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>2406110</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>438577</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>2409860</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>438577</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>2421347</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="A45">
         <v>442978</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>2410823</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="A46">
         <v>442978</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>2415001</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="A47">
         <v>442978</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>2421382</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>442978</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>2426926</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>442978</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>2436698</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="A50">
         <v>444332</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>2415377</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>444332</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>2421070</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="A52">
         <v>444332</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>2425945</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="A53">
         <v>444332</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>2436517</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>444332</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>2447784</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="A55">
         <v>444332</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>2453549</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="A56">
         <v>444332</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>2472048</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="A57">
         <v>444332</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>2520735</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="A58">
         <v>444446</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>2415464</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="A59">
         <v>444446</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>2421082</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>444446</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>2425933</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61">
         <v>444446</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>2437816</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="A62">
         <v>444446</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>2448076</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>444446</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>2453533</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="A64">
         <v>444446</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>2464643</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>444446</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>2476152</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>444446</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>2480180</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="A67">
         <v>444633</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>2415368</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="4" t="s">
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="A68">
         <v>444633</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>2420718</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="A69">
         <v>444633</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>2426869</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>444633</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>2436710</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="A71">
         <v>444633</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>2447992</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="4" t="s">
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72">
         <v>445602</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>2421360</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="A73">
         <v>445602</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>2425952</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="4" t="s">
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="A74">
         <v>445602</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>2426758</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>445602</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>2437744</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="4" t="s">
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="A76">
         <v>445602</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>2447833</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="A77">
         <v>445602</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>2465043</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="A78">
         <v>445602</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>2472278</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="A79">
         <v>445602</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>2480189</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="4" t="s">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="A80">
         <v>445602</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>2487867</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="A81">
         <v>445602</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>2526038</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="4" t="s">
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="A82">
         <v>449650</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>2447896</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="4" t="s">
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="A83">
         <v>449650</v>
       </c>
-      <c r="B83" s="4">
-        <v>2453538</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="4" t="s">
+      <c r="B83">
+        <v>2464594</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="A84">
         <v>449650</v>
       </c>
-      <c r="B84" s="4">
-        <v>2464594</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="4" t="s">
+      <c r="B84">
+        <v>2476159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="A85">
         <v>449650</v>
       </c>
-      <c r="B85" s="4">
-        <v>2476159</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="4" t="s">
+      <c r="B85">
+        <v>2488118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86">
         <v>449650</v>
       </c>
-      <c r="B86" s="4">
-        <v>2480398</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="B86">
+        <v>2515540</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="A87">
         <v>449650</v>
       </c>
-      <c r="B87" s="4">
-        <v>2488118</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="4" t="s">
+      <c r="B87">
+        <v>2525693</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>449650</v>
-      </c>
-      <c r="B88" s="4">
-        <v>2515540</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="A88">
+        <v>450241</v>
+      </c>
+      <c r="B88">
+        <v>2513687</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>449650</v>
-      </c>
-      <c r="B89" s="4">
-        <v>2525693</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="4" t="s">
+      <c r="A89">
+        <v>450241</v>
+      </c>
+      <c r="B89">
+        <v>2533267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="A90">
         <v>450241</v>
       </c>
-      <c r="B90" s="4">
-        <v>2513687</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4" t="s">
+      <c r="B90">
+        <v>2545470</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="A91">
         <v>450241</v>
       </c>
-      <c r="B91" s="4">
-        <v>2533267</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="B91">
+        <v>2551537</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="A92">
         <v>450241</v>
       </c>
-      <c r="B92" s="4">
-        <v>2545470</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="4" t="s">
+      <c r="B92">
+        <v>2556564</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="A93">
         <v>450241</v>
       </c>
-      <c r="B93" s="4">
-        <v>2551537</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="B93">
+        <v>2569381</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>450241</v>
-      </c>
-      <c r="B94" s="4">
-        <v>2556564</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="A94">
+        <v>450348</v>
+      </c>
+      <c r="B94">
+        <v>2472060</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>450241</v>
-      </c>
-      <c r="B95" s="4">
-        <v>2569381</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="A95">
+        <v>450348</v>
+      </c>
+      <c r="B95">
+        <v>2480447</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>450348</v>
+      </c>
+      <c r="B96">
+        <v>2488027</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>450348</v>
+      </c>
+      <c r="B97">
+        <v>2500624</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>450348</v>
+      </c>
+      <c r="B98">
+        <v>2513694</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>450348</v>
+      </c>
+      <c r="B99">
+        <v>2522026</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>450348</v>
+      </c>
+      <c r="B100">
+        <v>2534292</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>450348</v>
+      </c>
+      <c r="B101">
+        <v>2545516</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>450348</v>
+      </c>
+      <c r="B102">
+        <v>2555208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>451152</v>
+      </c>
+      <c r="B103">
+        <v>2535771</v>
+      </c>
+      <c r="C103" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B96" s="4">
-        <v>2472060</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B97" s="4">
-        <v>2480447</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B98" s="4">
-        <v>2488027</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B99" s="4">
-        <v>2500624</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B100" s="4">
-        <v>2513694</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B101" s="4">
-        <v>2522026</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B102" s="4">
-        <v>2534292</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B103" s="4">
-        <v>2545516</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>450348</v>
-      </c>
-      <c r="B104" s="4">
-        <v>2555208</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="A104">
+        <v>451152</v>
+      </c>
+      <c r="B104">
+        <v>2546854</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="A105">
         <v>451152</v>
       </c>
-      <c r="B105" s="4">
-        <v>2535771</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="B105">
+        <v>2551676</v>
+      </c>
+      <c r="C105" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="A106">
         <v>451152</v>
       </c>
-      <c r="B106" s="4">
-        <v>2546854</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="B106">
+        <v>2556733</v>
+      </c>
+      <c r="C106" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="A107">
         <v>451152</v>
       </c>
-      <c r="B107" s="4">
-        <v>2551676</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="B107">
+        <v>2570081</v>
+      </c>
+      <c r="C107" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108">
         <v>451152</v>
       </c>
-      <c r="B108" s="4">
-        <v>2556733</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="B108">
+        <v>2592755</v>
+      </c>
+      <c r="C108" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="A109">
         <v>451152</v>
       </c>
-      <c r="B109" s="4">
-        <v>2570081</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="B109">
+        <v>2604416</v>
+      </c>
+      <c r="C109" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="A110">
         <v>451152</v>
       </c>
-      <c r="B110" s="4">
-        <v>2592755</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="B110">
+        <v>2613386</v>
+      </c>
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>451152</v>
-      </c>
-      <c r="B111" s="4">
-        <v>2604416</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="A111">
+        <v>451709</v>
+      </c>
+      <c r="B111">
+        <v>2595014</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>451152</v>
-      </c>
-      <c r="B112" s="4">
-        <v>2613386</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="4" t="s">
+      <c r="A112">
+        <v>451709</v>
+      </c>
+      <c r="B112">
+        <v>2614059</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="A113">
         <v>451709</v>
       </c>
-      <c r="B113" s="4">
-        <v>2595014</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="4" t="s">
+      <c r="B113">
+        <v>2620505</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="A114">
         <v>451709</v>
       </c>
-      <c r="B114" s="4">
-        <v>2614059</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D114" s="4" t="s">
+      <c r="B114">
+        <v>2627185</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="A115">
         <v>451709</v>
       </c>
-      <c r="B115" s="4">
-        <v>2620505</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="4" t="s">
+      <c r="B115">
+        <v>2641146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="A116">
         <v>451709</v>
       </c>
-      <c r="B116" s="4">
-        <v>2627185</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="4" t="s">
+      <c r="B116">
+        <v>2653210</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="A117">
         <v>451709</v>
       </c>
-      <c r="B117" s="4">
-        <v>2641146</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="4" t="s">
+      <c r="B117">
+        <v>2663852</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118">
         <v>451709</v>
       </c>
-      <c r="B118" s="4">
-        <v>2653210</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="4" t="s">
+      <c r="B118">
+        <v>2673662</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="A119">
         <v>451709</v>
       </c>
-      <c r="B119" s="4">
-        <v>2663852</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="B119">
+        <v>2685862</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>453058</v>
+      </c>
+      <c r="B120">
+        <v>2620543</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>453058</v>
+      </c>
+      <c r="B121">
+        <v>2627068</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>453058</v>
+      </c>
+      <c r="B122">
+        <v>2638730</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>453058</v>
+      </c>
+      <c r="B123">
+        <v>2651345</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>453058</v>
+      </c>
+      <c r="B124">
+        <v>2663763</v>
+      </c>
+      <c r="C124" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>451709</v>
-      </c>
-      <c r="B120" s="4">
-        <v>2673662</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <v>451709</v>
-      </c>
-      <c r="B121" s="4">
-        <v>2685862</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>453058</v>
       </c>
-      <c r="B122" s="4">
-        <v>2620543</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="B125">
+        <v>2674330</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
         <v>453058</v>
       </c>
-      <c r="B123" s="4">
-        <v>2627068</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>453058</v>
-      </c>
-      <c r="B124" s="4">
-        <v>2638730</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <v>453058</v>
-      </c>
-      <c r="B125" s="4">
-        <v>2651345</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="B126">
+        <v>2685840</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>459597</v>
+      </c>
+      <c r="B127">
+        <v>2760718</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>459597</v>
+      </c>
+      <c r="B128">
+        <v>2773515</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>459597</v>
+      </c>
+      <c r="B129">
+        <v>2786356</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>459597</v>
+      </c>
+      <c r="B130">
+        <v>2797480</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>459597</v>
+      </c>
+      <c r="B131">
+        <v>2806801</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>459597</v>
+      </c>
+      <c r="B132">
+        <v>2819061</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>459597</v>
+      </c>
+      <c r="B133">
+        <v>2826028</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>461913</v>
+      </c>
+      <c r="B134">
+        <v>2890862</v>
+      </c>
+      <c r="C134" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>453058</v>
-      </c>
-      <c r="B126" s="4">
-        <v>2663763</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <v>453058</v>
-      </c>
-      <c r="B127" s="4">
-        <v>2674330</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>453058</v>
-      </c>
-      <c r="B128" s="4">
-        <v>2685840</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B129" s="4">
-        <v>2760718</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B130" s="4">
-        <v>2773515</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B131" s="4">
-        <v>2786356</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B132" s="4">
-        <v>2797480</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B133" s="4">
-        <v>2806801</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B134" s="4">
-        <v>2819061</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>12</v>
+      <c r="D134" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <v>459597</v>
-      </c>
-      <c r="B135" s="4">
-        <v>2826028</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="4" t="s">
+      <c r="A135">
+        <v>471467</v>
+      </c>
+      <c r="B135">
+        <v>3059818</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>461913</v>
-      </c>
-      <c r="B136" s="4">
-        <v>2890862</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>10</v>
+      <c r="A136">
+        <v>471467</v>
+      </c>
+      <c r="B136">
+        <v>3070645</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="A137">
         <v>471467</v>
       </c>
-      <c r="B137" s="4">
-        <v>3059818</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="4" t="s">
+      <c r="B137">
+        <v>3076691</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="A138">
         <v>471467</v>
       </c>
-      <c r="B138" s="4">
-        <v>3070645</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="4" t="s">
+      <c r="B138">
+        <v>3081629</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="A139">
         <v>471467</v>
       </c>
-      <c r="B139" s="4">
-        <v>3076691</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="4" t="s">
+      <c r="B139">
+        <v>3091337</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="A140">
         <v>471467</v>
       </c>
-      <c r="B140" s="4">
-        <v>3081629</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="4" t="s">
+      <c r="B140">
+        <v>3102769</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141">
         <v>471467</v>
       </c>
-      <c r="B141" s="4">
-        <v>3091337</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D141" s="4" t="s">
+      <c r="B141">
+        <v>3109971</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="A142">
         <v>471467</v>
       </c>
-      <c r="B142" s="4">
-        <v>3102769</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D142" s="4" t="s">
+      <c r="B142">
+        <v>3119403</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="A143">
         <v>471467</v>
       </c>
-      <c r="B143" s="4">
-        <v>3109971</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="B143">
+        <v>3129719</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="A144">
         <v>471467</v>
       </c>
-      <c r="B144" s="4">
-        <v>3119403</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="4" t="s">
+      <c r="B144">
+        <v>3148657</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <v>471467</v>
-      </c>
-      <c r="B145" s="4">
-        <v>3129719</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="4" t="s">
+      <c r="A145">
+        <v>471588</v>
+      </c>
+      <c r="B145">
+        <v>3059822</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>471467</v>
-      </c>
-      <c r="B146" s="4">
-        <v>3148657</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="4" t="s">
+      <c r="A146">
+        <v>471588</v>
+      </c>
+      <c r="B146">
+        <v>3070647</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147">
         <v>471588</v>
       </c>
-      <c r="B147" s="4">
-        <v>3059822</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="4" t="s">
+      <c r="B147">
+        <v>3076731</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="A148">
         <v>471588</v>
       </c>
-      <c r="B148" s="4">
-        <v>3070647</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="4" t="s">
+      <c r="B148">
+        <v>3081633</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="A149">
         <v>471588</v>
       </c>
-      <c r="B149" s="4">
-        <v>3076731</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="4" t="s">
+      <c r="B149">
+        <v>3091339</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150">
         <v>471588</v>
       </c>
-      <c r="B150" s="4">
-        <v>3081633</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="4" t="s">
+      <c r="B150">
+        <v>3102774</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="A151">
         <v>471588</v>
       </c>
-      <c r="B151" s="4">
-        <v>3091339</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D151" s="4" t="s">
+      <c r="B151">
+        <v>3110014</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="A152">
         <v>471588</v>
       </c>
-      <c r="B152" s="4">
-        <v>3102774</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D152" s="4" t="s">
+      <c r="B152">
+        <v>3119405</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="A153">
         <v>471588</v>
       </c>
-      <c r="B153" s="4">
-        <v>3110014</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="4" t="s">
+      <c r="B153">
+        <v>3129726</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <v>471588</v>
-      </c>
-      <c r="B154" s="4">
-        <v>3119405</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>12</v>
+      <c r="A154" s="1">
+        <v>471876</v>
+      </c>
+      <c r="B154">
+        <v>3070641</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
-        <v>471588</v>
-      </c>
-      <c r="B155" s="4">
-        <v>3129726</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>12</v>
+      <c r="A155" s="1">
+        <v>471876</v>
+      </c>
+      <c r="B155">
+        <v>3076727</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>471876</v>
       </c>
-      <c r="B156" s="4">
-        <v>3070641</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="4" t="s">
+      <c r="B156">
+        <v>3081646</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2680,13 +2675,13 @@
       <c r="A157" s="1">
         <v>471876</v>
       </c>
-      <c r="B157" s="4">
-        <v>3076727</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="4" t="s">
+      <c r="B157">
+        <v>3091319</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2694,13 +2689,13 @@
       <c r="A158" s="1">
         <v>471876</v>
       </c>
-      <c r="B158" s="4">
-        <v>3081646</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="B158">
+        <v>3102768</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2708,13 +2703,13 @@
       <c r="A159" s="1">
         <v>471876</v>
       </c>
-      <c r="B159" s="4">
-        <v>3091319</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D159" s="4" t="s">
+      <c r="B159">
+        <v>3119401</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2722,13 +2717,13 @@
       <c r="A160" s="1">
         <v>471876</v>
       </c>
-      <c r="B160" s="4">
-        <v>3102768</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="4" t="s">
+      <c r="B160">
+        <v>3129717</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2736,41 +2731,41 @@
       <c r="A161" s="1">
         <v>471876</v>
       </c>
-      <c r="B161" s="4">
-        <v>3119401</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D161" s="4" t="s">
+      <c r="B161">
+        <v>3138294</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>471876</v>
-      </c>
-      <c r="B162" s="4">
-        <v>3129717</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="4" t="s">
+        <v>475670</v>
+      </c>
+      <c r="B162">
+        <v>3157577</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>471876</v>
-      </c>
-      <c r="B163" s="4">
-        <v>3138294</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="4" t="s">
+        <v>475670</v>
+      </c>
+      <c r="B163">
+        <v>3167376</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2778,13 +2773,13 @@
       <c r="A164" s="1">
         <v>475670</v>
       </c>
-      <c r="B164" s="4">
-        <v>3157577</v>
-      </c>
-      <c r="C164" s="5" t="s">
+      <c r="B164">
+        <v>3175348</v>
+      </c>
+      <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2792,13 +2787,13 @@
       <c r="A165" s="1">
         <v>475670</v>
       </c>
-      <c r="B165" s="4">
-        <v>3167376</v>
-      </c>
-      <c r="C165" s="5" t="s">
+      <c r="B165">
+        <v>3185930</v>
+      </c>
+      <c r="C165" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2806,13 +2801,13 @@
       <c r="A166" s="1">
         <v>475670</v>
       </c>
-      <c r="B166" s="4">
-        <v>3175348</v>
-      </c>
-      <c r="C166" s="5" t="s">
+      <c r="B166">
+        <v>3197621</v>
+      </c>
+      <c r="C166" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2820,13 +2815,13 @@
       <c r="A167" s="1">
         <v>475670</v>
       </c>
-      <c r="B167" s="4">
-        <v>3185930</v>
-      </c>
-      <c r="C167" s="5" t="s">
+      <c r="B167">
+        <v>3205788</v>
+      </c>
+      <c r="C167" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D167" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2834,41 +2829,41 @@
       <c r="A168" s="1">
         <v>475670</v>
       </c>
-      <c r="B168" s="4">
-        <v>3197621</v>
-      </c>
-      <c r="C168" s="5" t="s">
+      <c r="B168">
+        <v>3215238</v>
+      </c>
+      <c r="C168" t="s">
         <v>5</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="D168" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>475670</v>
-      </c>
-      <c r="B169" s="4">
-        <v>3205788</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D169" s="4" t="s">
+        <v>475951</v>
+      </c>
+      <c r="B169">
+        <v>3128412</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>475670</v>
-      </c>
-      <c r="B170" s="4">
-        <v>3215238</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D170" s="4" t="s">
+        <v>475951</v>
+      </c>
+      <c r="B170">
+        <v>3138312</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2876,13 +2871,13 @@
       <c r="A171" s="1">
         <v>475951</v>
       </c>
-      <c r="B171" s="4">
-        <v>3128412</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D171" s="4" t="s">
+      <c r="B171">
+        <v>3145073</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2890,41 +2885,41 @@
       <c r="A172" s="1">
         <v>475951</v>
       </c>
-      <c r="B172" s="4">
-        <v>3138312</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D172" s="4" t="s">
+      <c r="B172">
+        <v>3167381</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>475951</v>
-      </c>
-      <c r="B173" s="4">
-        <v>3145073</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="4" t="s">
+        <v>481242</v>
+      </c>
+      <c r="B173">
+        <v>3167398</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>475951</v>
-      </c>
-      <c r="B174" s="4">
-        <v>3167381</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="4" t="s">
+        <v>481242</v>
+      </c>
+      <c r="B174">
+        <v>3175347</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2932,13 +2927,13 @@
       <c r="A175" s="1">
         <v>481242</v>
       </c>
-      <c r="B175" s="4">
-        <v>3167398</v>
-      </c>
-      <c r="C175" s="5" t="s">
+      <c r="B175">
+        <v>3185933</v>
+      </c>
+      <c r="C175" t="s">
         <v>5</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D175" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2946,13 +2941,13 @@
       <c r="A176" s="1">
         <v>481242</v>
       </c>
-      <c r="B176" s="4">
-        <v>3175347</v>
-      </c>
-      <c r="C176" s="5" t="s">
+      <c r="B176">
+        <v>3192013</v>
+      </c>
+      <c r="C176" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D176" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2960,13 +2955,13 @@
       <c r="A177" s="1">
         <v>481242</v>
       </c>
-      <c r="B177" s="4">
-        <v>3185933</v>
-      </c>
-      <c r="C177" s="5" t="s">
+      <c r="B177">
+        <v>3197624</v>
+      </c>
+      <c r="C177" t="s">
         <v>5</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D177" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2974,13 +2969,13 @@
       <c r="A178" s="1">
         <v>481242</v>
       </c>
-      <c r="B178" s="4">
-        <v>3192013</v>
-      </c>
-      <c r="C178" s="5" t="s">
+      <c r="B178">
+        <v>3205792</v>
+      </c>
+      <c r="C178" t="s">
         <v>5</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D178" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2988,55 +2983,55 @@
       <c r="A179" s="1">
         <v>481242</v>
       </c>
-      <c r="B179" s="4">
-        <v>3197624</v>
-      </c>
-      <c r="C179" s="5" t="s">
+      <c r="B179">
+        <v>3215245</v>
+      </c>
+      <c r="C179" t="s">
         <v>5</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D179" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>481242</v>
-      </c>
-      <c r="B180" s="4">
-        <v>3205792</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" s="4" t="s">
+      <c r="A180">
+        <v>481672</v>
+      </c>
+      <c r="B180">
+        <v>3242605</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>481242</v>
-      </c>
-      <c r="B181" s="4">
-        <v>3215245</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" s="4" t="s">
+        <v>482828</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3224635</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
-        <v>481672</v>
-      </c>
-      <c r="B182" s="4">
-        <v>3242605</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D182" s="4" t="s">
+      <c r="A182" s="1">
+        <v>482828</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3234038</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3045,12 +3040,12 @@
         <v>482828</v>
       </c>
       <c r="B183" s="1">
-        <v>3224635</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="4" t="s">
+        <v>3242597</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3059,110 +3054,110 @@
         <v>482828</v>
       </c>
       <c r="B184" s="1">
-        <v>3234038</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="4" t="s">
+        <v>3250543</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>482828</v>
+        <v>484249</v>
       </c>
       <c r="B185" s="1">
-        <v>3242597</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D185" s="4" t="s">
+        <v>3242603</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>482828</v>
+        <v>484249</v>
       </c>
       <c r="B186" s="1">
-        <v>3250543</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="4" t="s">
+        <v>3250559</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>484249</v>
-      </c>
-      <c r="B187" s="1">
-        <v>3242603</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="4" t="s">
+      <c r="A187">
+        <v>485948</v>
+      </c>
+      <c r="B187">
+        <v>3250575</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>484249</v>
-      </c>
-      <c r="B188" s="1">
-        <v>3250559</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="4" t="s">
+      <c r="A188">
+        <v>485948</v>
+      </c>
+      <c r="B188">
+        <v>3253850</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="A189">
         <v>485948</v>
       </c>
-      <c r="B189" s="4">
-        <v>3250575</v>
-      </c>
-      <c r="C189" s="4" t="s">
+      <c r="B189">
+        <v>3291260</v>
+      </c>
+      <c r="C189" t="s">
         <v>4</v>
       </c>
-      <c r="D189" s="4" t="s">
+      <c r="D189" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
-        <v>485948</v>
-      </c>
-      <c r="B190" s="4">
-        <v>3253850</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4" t="s">
+      <c r="A190" s="1">
+        <v>486422</v>
+      </c>
+      <c r="B190" s="1">
+        <v>3265002</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
-        <v>485948</v>
-      </c>
-      <c r="B191" s="4">
-        <v>3291260</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D191" s="4" t="s">
+      <c r="A191" s="1">
+        <v>486422</v>
+      </c>
+      <c r="B191" s="1">
+        <v>3273779</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3171,40 +3166,40 @@
         <v>486422</v>
       </c>
       <c r="B192" s="1">
-        <v>3265002</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D192" s="4" t="s">
+        <v>3282230</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>486422</v>
+        <v>487250</v>
       </c>
       <c r="B193" s="1">
-        <v>3273779</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D193" s="4" t="s">
+        <v>3282204</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>486422</v>
+        <v>487250</v>
       </c>
       <c r="B194" s="1">
-        <v>3282230</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="4" t="s">
+        <v>3309204</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3213,12 +3208,12 @@
         <v>487250</v>
       </c>
       <c r="B195" s="1">
-        <v>3282204</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4" t="s">
+        <v>3330663</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3227,40 +3222,40 @@
         <v>487250</v>
       </c>
       <c r="B196" s="1">
-        <v>3309204</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="4" t="s">
+        <v>3339346</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>487250</v>
+        <v>487297</v>
       </c>
       <c r="B197" s="1">
-        <v>3330663</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="4" t="s">
+        <v>3282198</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>487250</v>
+        <v>487297</v>
       </c>
       <c r="B198" s="1">
-        <v>3339346</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D198" s="4" t="s">
+        <v>3291252</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3269,60 +3264,32 @@
         <v>487297</v>
       </c>
       <c r="B199" s="1">
-        <v>3282198</v>
-      </c>
-      <c r="C199" s="5" t="s">
+        <v>3300933</v>
+      </c>
+      <c r="C199" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="4" t="s">
+      <c r="D199" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>487297</v>
-      </c>
-      <c r="B200" s="1">
-        <v>3291252</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>487297</v>
-      </c>
-      <c r="B201" s="1">
-        <v>3300933</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="A200">
         <v>487941</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B200">
         <v>3305749</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D202" s="4" t="s">
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D202">
-    <sortCondition ref="A2:A202"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D200">
+    <sortCondition ref="A2:A200"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
